--- a/Finland Kolmonen/Finland Kolmonen.xlsx
+++ b/Finland Kolmonen/Finland Kolmonen.xlsx
@@ -187,25 +187,25 @@
     <t>GrIFK Reservi</t>
   </si>
   <si>
+    <t>MP II</t>
+  </si>
+  <si>
     <t>TKT</t>
   </si>
   <si>
     <t>RiPS</t>
   </si>
   <si>
-    <t>MP II</t>
-  </si>
-  <si>
     <t>FC Inter II</t>
-  </si>
-  <si>
-    <t>EIF Academy</t>
   </si>
   <si>
     <t>PP70</t>
   </si>
   <si>
     <t>Roi United</t>
+  </si>
+  <si>
+    <t>EIF Academy</t>
   </si>
   <si>
     <t>Ponnistajat</t>
@@ -220,13 +220,13 @@
     <t>TP49</t>
   </si>
   <si>
-    <t>FCJ Blackbird</t>
-  </si>
-  <si>
     <t>Edustus IPS</t>
   </si>
   <si>
     <t>HPS</t>
+  </si>
+  <si>
+    <t>FCJ Blackbird</t>
   </si>
   <si>
     <t>NoPS</t>
@@ -268,13 +268,13 @@
     <t>VPSJ</t>
   </si>
   <si>
-    <t>HaPK</t>
+    <t>Saaksjrven Loiske</t>
   </si>
   <si>
     <t>FF Jaro II</t>
   </si>
   <si>
-    <t>Saaksjrven Loiske</t>
+    <t>HaPK</t>
   </si>
   <si>
     <t>FC Espoo</t>
@@ -334,10 +334,10 @@
     <t>EPS Reservi</t>
   </si>
   <si>
-    <t>JPS</t>
+    <t>FC Haka Juniors</t>
   </si>
   <si>
-    <t>FC Haka Juniors</t>
+    <t>JPS</t>
   </si>
   <si>
     <t>Tervakosken Pato</t>
@@ -1370,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1800,7 +1800,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3680,7 +3680,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6745598</v>
+        <v>6749375</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3689,76 +3689,76 @@
         <v>45085.52083333334</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34">
+        <v>4.75</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>1.533</v>
+      </c>
+      <c r="M34">
+        <v>2.55</v>
+      </c>
+      <c r="N34">
+        <v>3.5</v>
+      </c>
+      <c r="O34">
+        <v>2.3</v>
+      </c>
+      <c r="P34">
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="Q34">
         <v>2</v>
       </c>
-      <c r="I34" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34">
+      <c r="R34">
+        <v>1.8</v>
+      </c>
+      <c r="S34">
+        <v>3.25</v>
+      </c>
+      <c r="T34">
+        <v>1.95</v>
+      </c>
+      <c r="U34">
+        <v>1.85</v>
+      </c>
+      <c r="V34">
+        <v>-1</v>
+      </c>
+      <c r="W34">
         <v>2.5</v>
       </c>
-      <c r="K34">
-        <v>3.75</v>
-      </c>
-      <c r="L34">
-        <v>2.25</v>
-      </c>
-      <c r="M34">
-        <v>3</v>
-      </c>
-      <c r="N34">
-        <v>4.333</v>
-      </c>
-      <c r="O34">
-        <v>1.8</v>
-      </c>
-      <c r="P34">
-        <v>0.5</v>
-      </c>
-      <c r="Q34">
-        <v>1.95</v>
-      </c>
-      <c r="R34">
-        <v>1.85</v>
-      </c>
-      <c r="S34">
-        <v>3.75</v>
-      </c>
-      <c r="T34">
-        <v>1.9</v>
-      </c>
-      <c r="U34">
-        <v>1.9</v>
-      </c>
-      <c r="V34">
-        <v>-1</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
       <c r="X34">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3775,7 +3775,7 @@
         <v>45085.52083333334</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -3852,7 +3852,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6745507</v>
+        <v>6745598</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3861,40 +3861,40 @@
         <v>45085.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J36">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L36">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="M36">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>4.333</v>
       </c>
       <c r="O36">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="P36">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q36">
         <v>1.95</v>
@@ -3906,31 +3906,31 @@
         <v>3.75</v>
       </c>
       <c r="T36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3938,7 +3938,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6749375</v>
+        <v>6745507</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3950,73 +3950,73 @@
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J37">
+        <v>1.4</v>
+      </c>
+      <c r="K37">
+        <v>4.5</v>
+      </c>
+      <c r="L37">
+        <v>5.75</v>
+      </c>
+      <c r="M37">
+        <v>1.5</v>
+      </c>
+      <c r="N37">
+        <v>4.333</v>
+      </c>
+      <c r="O37">
         <v>4.75</v>
       </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37">
-        <v>1.533</v>
-      </c>
-      <c r="M37">
-        <v>2.55</v>
-      </c>
-      <c r="N37">
-        <v>3.5</v>
-      </c>
-      <c r="O37">
-        <v>2.3</v>
-      </c>
       <c r="P37">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4110,7 +4110,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6745508</v>
+        <v>6745709</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -4122,73 +4122,73 @@
         <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J39">
-        <v>4.25</v>
+        <v>2.15</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
         <v>3.75</v>
       </c>
-      <c r="N39">
-        <v>4</v>
-      </c>
       <c r="O39">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
         <v>3.5</v>
       </c>
       <c r="T39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4196,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6745709</v>
+        <v>6745599</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -4208,73 +4208,73 @@
         <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J40">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>1.833</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <v>3.3</v>
+      </c>
+      <c r="P40">
+        <v>-0.5</v>
+      </c>
+      <c r="Q40">
+        <v>1.85</v>
+      </c>
+      <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
         <v>3.75</v>
       </c>
-      <c r="L40">
-        <v>2.625</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
-      <c r="O40">
-        <v>3</v>
-      </c>
-      <c r="P40">
-        <v>-0.25</v>
-      </c>
-      <c r="Q40">
-        <v>1.8</v>
-      </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>3.5</v>
-      </c>
       <c r="T40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4282,7 +4282,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6745599</v>
+        <v>6745508</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4294,52 +4294,52 @@
         <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="s">
         <v>151</v>
       </c>
       <c r="J41">
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="M41">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
         <v>4</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="P41">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
         <v>-1</v>
@@ -4348,19 +4348,19 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4884,7 +4884,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6749499</v>
+        <v>6749508</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4896,10 +4896,10 @@
         <v>68</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4908,34 +4908,34 @@
         <v>150</v>
       </c>
       <c r="J48">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="M48">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="N48">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T48">
         <v>1.9</v>
@@ -4944,7 +4944,7 @@
         <v>1.9</v>
       </c>
       <c r="V48">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4953,16 +4953,16 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4970,7 +4970,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6749508</v>
+        <v>6749389</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4982,40 +4982,40 @@
         <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>150</v>
       </c>
       <c r="J49">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K49">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L49">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="M49">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="N49">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P49">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="Q49">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R49">
         <v>1.925</v>
@@ -5030,7 +5030,7 @@
         <v>1.9</v>
       </c>
       <c r="V49">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -5039,10 +5039,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -5056,7 +5056,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6749389</v>
+        <v>6749499</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -5068,46 +5068,46 @@
         <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
         <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>150</v>
       </c>
       <c r="J50">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="K50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M50">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="O50">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q50">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T50">
         <v>1.9</v>
@@ -5116,7 +5116,7 @@
         <v>1.9</v>
       </c>
       <c r="V50">
-        <v>0.1659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -5125,16 +5125,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -5154,7 +5154,7 @@
         <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -6530,7 +6530,7 @@
         <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6690,7 +6690,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6768232</v>
+        <v>6768234</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6702,73 +6702,73 @@
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J69">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="K69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L69">
+        <v>2.1</v>
+      </c>
+      <c r="M69">
         <v>3.8</v>
-      </c>
-      <c r="M69">
-        <v>1.55</v>
       </c>
       <c r="N69">
         <v>4.333</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="P69">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Q69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="T69">
         <v>1.925</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6862,7 +6862,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6768234</v>
+        <v>6768232</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -6874,73 +6874,73 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J71">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="K71">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="M71">
-        <v>3.8</v>
+        <v>1.55</v>
       </c>
       <c r="N71">
         <v>4.333</v>
       </c>
       <c r="O71">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T71">
         <v>1.925</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V71">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -7132,7 +7132,7 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>45093.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s">
         <v>44</v>
@@ -8680,7 +8680,7 @@
         <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6780318</v>
+        <v>6780317</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -9021,67 +9021,67 @@
         <v>45094.375</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
         <v>1</v>
       </c>
-      <c r="H96">
-        <v>3</v>
-      </c>
       <c r="I96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J96">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K96">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="L96">
-        <v>1.062</v>
+        <v>1.571</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>12</v>
+        <v>5.25</v>
       </c>
       <c r="O96">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="P96">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T96">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U96">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>0.04000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="Z96">
         <v>-1</v>
@@ -9090,7 +9090,7 @@
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9098,7 +9098,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6780317</v>
+        <v>6780318</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9107,68 +9107,68 @@
         <v>45094.375</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>151</v>
+      </c>
+      <c r="J97">
+        <v>15</v>
+      </c>
+      <c r="K97">
+        <v>12</v>
+      </c>
+      <c r="L97">
+        <v>1.062</v>
+      </c>
+      <c r="M97">
+        <v>21</v>
+      </c>
+      <c r="N97">
+        <v>12</v>
+      </c>
+      <c r="O97">
+        <v>1.04</v>
+      </c>
+      <c r="P97">
+        <v>3.5</v>
+      </c>
+      <c r="Q97">
         <v>2</v>
       </c>
-      <c r="H97">
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>4.5</v>
+      </c>
+      <c r="T97">
+        <v>1.7</v>
+      </c>
+      <c r="U97">
+        <v>2.1</v>
+      </c>
+      <c r="V97">
+        <v>-1</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="Y97">
         <v>1</v>
       </c>
-      <c r="I97" t="s">
-        <v>150</v>
-      </c>
-      <c r="J97">
-        <v>4</v>
-      </c>
-      <c r="K97">
-        <v>4.5</v>
-      </c>
-      <c r="L97">
-        <v>1.571</v>
-      </c>
-      <c r="M97">
-        <v>4.333</v>
-      </c>
-      <c r="N97">
-        <v>5.25</v>
-      </c>
-      <c r="O97">
-        <v>1.444</v>
-      </c>
-      <c r="P97">
-        <v>1.25</v>
-      </c>
-      <c r="Q97">
-        <v>1.925</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>4</v>
-      </c>
-      <c r="T97">
-        <v>1.9</v>
-      </c>
-      <c r="U97">
-        <v>1.9</v>
-      </c>
-      <c r="V97">
-        <v>3.333</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>0.925</v>
-      </c>
       <c r="Z97">
         <v>-1</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -9540,7 +9540,7 @@
         <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6794142</v>
+        <v>6794143</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -10056,16 +10056,16 @@
         <v>106</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J108">
         <v>1.5</v>
@@ -10077,52 +10077,52 @@
         <v>4.5</v>
       </c>
       <c r="M108">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N108">
         <v>4.2</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6794143</v>
+        <v>6794142</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -10142,16 +10142,16 @@
         <v>107</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J109">
         <v>1.5</v>
@@ -10163,52 +10163,52 @@
         <v>4.5</v>
       </c>
       <c r="M109">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N109">
         <v>4.2</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="T109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -10314,7 +10314,7 @@
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10483,10 +10483,10 @@
         <v>45098.52083333334</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10560,7 +10560,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6797051</v>
+        <v>6797035</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10569,76 +10569,76 @@
         <v>45098.52083333334</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="G114">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J114">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M114">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="N114">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="P114">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q114">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T114">
+        <v>1.95</v>
+      </c>
+      <c r="U114">
         <v>1.85</v>
       </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
       <c r="V114">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10732,7 +10732,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6797035</v>
+        <v>6797051</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10741,76 +10741,76 @@
         <v>45098.52083333334</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F116" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J116">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L116">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="N116">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q116">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T116">
+        <v>1.85</v>
+      </c>
+      <c r="U116">
         <v>1.95</v>
       </c>
-      <c r="U116">
-        <v>1.85</v>
-      </c>
       <c r="V116">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W116">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10818,7 +10818,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6797011</v>
+        <v>6797063</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10827,73 +10827,73 @@
         <v>45098.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F117" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G117">
+        <v>6</v>
+      </c>
+      <c r="H117">
         <v>1</v>
       </c>
-      <c r="H117">
-        <v>3</v>
-      </c>
       <c r="I117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J117">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="K117">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L117">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>1.035</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O117">
-        <v>1.909</v>
+        <v>34</v>
       </c>
       <c r="P117">
-        <v>0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="Q117">
+        <v>1.975</v>
+      </c>
+      <c r="R117">
         <v>1.825</v>
       </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="T117">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -10904,7 +10904,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6802206</v>
+        <v>6796508</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10913,76 +10913,76 @@
         <v>45098.54166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J118">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="K118">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L118">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>5.5</v>
       </c>
-      <c r="O118">
-        <v>6.5</v>
-      </c>
       <c r="P118">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q118">
+        <v>1.925</v>
+      </c>
+      <c r="R118">
+        <v>1.875</v>
+      </c>
+      <c r="S118">
+        <v>3.5</v>
+      </c>
+      <c r="T118">
+        <v>1.975</v>
+      </c>
+      <c r="U118">
         <v>1.825</v>
       </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
-      <c r="S118">
-        <v>4</v>
-      </c>
-      <c r="T118">
-        <v>1.825</v>
-      </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
       <c r="V118">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>0.875</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
         <v>0.825</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
-      <c r="AA118">
-        <v>0.825</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10990,7 +10990,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6797063</v>
+        <v>6797011</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10999,73 +10999,73 @@
         <v>45098.54166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="G119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J119">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="K119">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L119">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="M119">
-        <v>1.035</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O119">
-        <v>34</v>
+        <v>1.909</v>
       </c>
       <c r="P119">
-        <v>-4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q119">
+        <v>1.825</v>
+      </c>
+      <c r="R119">
         <v>1.975</v>
       </c>
-      <c r="R119">
-        <v>1.825</v>
-      </c>
       <c r="S119">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="T119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -11076,7 +11076,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6796508</v>
+        <v>6802206</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -11085,76 +11085,76 @@
         <v>45098.54166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J120">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="K120">
+        <v>8</v>
+      </c>
+      <c r="L120">
+        <v>11</v>
+      </c>
+      <c r="M120">
+        <v>1.3</v>
+      </c>
+      <c r="N120">
+        <v>5.5</v>
+      </c>
+      <c r="O120">
+        <v>6.5</v>
+      </c>
+      <c r="P120">
+        <v>-1.75</v>
+      </c>
+      <c r="Q120">
+        <v>1.825</v>
+      </c>
+      <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
         <v>4</v>
       </c>
-      <c r="L120">
-        <v>4.5</v>
-      </c>
-      <c r="M120">
-        <v>1.4</v>
-      </c>
-      <c r="N120">
-        <v>4.5</v>
-      </c>
-      <c r="O120">
-        <v>5.5</v>
-      </c>
-      <c r="P120">
-        <v>-1.25</v>
-      </c>
-      <c r="Q120">
-        <v>1.925</v>
-      </c>
-      <c r="R120">
-        <v>1.875</v>
-      </c>
-      <c r="S120">
-        <v>3.5</v>
-      </c>
       <c r="T120">
+        <v>1.825</v>
+      </c>
+      <c r="U120">
         <v>1.975</v>
       </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W120">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -11174,7 +11174,7 @@
         <v>74</v>
       </c>
       <c r="F121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11592,7 +11592,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6829072</v>
+        <v>6829073</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11601,40 +11601,40 @@
         <v>45105.52083333334</v>
       </c>
       <c r="E126" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J126">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="K126">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L126">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N126">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -11646,31 +11646,31 @@
         <v>3.25</v>
       </c>
       <c r="T126">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z126">
-        <v>-1</v>
-      </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11678,7 +11678,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6829073</v>
+        <v>6829072</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11687,40 +11687,40 @@
         <v>45105.52083333334</v>
       </c>
       <c r="E127" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F127" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J127">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="K127">
+        <v>4.5</v>
+      </c>
+      <c r="L127">
+        <v>1.5</v>
+      </c>
+      <c r="M127">
+        <v>2.6</v>
+      </c>
+      <c r="N127">
         <v>4.2</v>
       </c>
-      <c r="L127">
-        <v>3.6</v>
-      </c>
-      <c r="M127">
-        <v>1.727</v>
-      </c>
-      <c r="N127">
-        <v>4.333</v>
-      </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -11732,31 +11732,31 @@
         <v>3.25</v>
       </c>
       <c r="T127">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11862,7 +11862,7 @@
         <v>56</v>
       </c>
       <c r="F129" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -12980,7 +12980,7 @@
         <v>73</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13410,7 +13410,7 @@
         <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -14095,7 +14095,7 @@
         <v>45112.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F155" t="s">
         <v>66</v>
@@ -14516,7 +14516,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6866026</v>
+        <v>6865977</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14525,58 +14525,58 @@
         <v>45113.54166666666</v>
       </c>
       <c r="E160" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>150</v>
       </c>
       <c r="J160">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="K160">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="M160">
-        <v>2.05</v>
+        <v>1.035</v>
       </c>
       <c r="N160">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="O160">
-        <v>2.8</v>
+        <v>34</v>
       </c>
       <c r="P160">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="Q160">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="T160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.05</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14585,16 +14585,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14602,7 +14602,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6865977</v>
+        <v>6866026</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14611,58 +14611,58 @@
         <v>45113.54166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
         <v>2</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
       </c>
       <c r="I161" t="s">
         <v>150</v>
       </c>
       <c r="J161">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="K161">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="L161">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>1.035</v>
+        <v>2.05</v>
       </c>
       <c r="N161">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="O161">
-        <v>34</v>
+        <v>2.8</v>
       </c>
       <c r="P161">
-        <v>-4</v>
+        <v>-0.25</v>
       </c>
       <c r="Q161">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="T161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>0.03499999999999992</v>
+        <v>1.05</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14671,16 +14671,16 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14700,7 +14700,7 @@
         <v>71</v>
       </c>
       <c r="F162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14872,7 +14872,7 @@
         <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -15041,7 +15041,7 @@
         <v>45114.52083333334</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F166" t="s">
         <v>52</v>
@@ -15216,7 +15216,7 @@
         <v>116</v>
       </c>
       <c r="F168" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G168">
         <v>6</v>
@@ -15978,7 +15978,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6871463</v>
+        <v>6884014</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15987,10 +15987,10 @@
         <v>45115.375</v>
       </c>
       <c r="E177" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F177" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -16002,58 +16002,58 @@
         <v>152</v>
       </c>
       <c r="J177">
-        <v>6.25</v>
+        <v>1.5</v>
       </c>
       <c r="K177">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L177">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="M177">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N177">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O177">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="P177">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q177">
+        <v>2.075</v>
+      </c>
+      <c r="R177">
+        <v>1.725</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
         <v>1.9</v>
       </c>
-      <c r="R177">
+      <c r="U177">
         <v>1.9</v>
       </c>
-      <c r="S177">
-        <v>3.25</v>
-      </c>
-      <c r="T177">
-        <v>1.95</v>
-      </c>
-      <c r="U177">
-        <v>1.85</v>
-      </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA177">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z177">
-        <v>-1</v>
-      </c>
-      <c r="AA177">
-        <v>0.95</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16064,7 +16064,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6884014</v>
+        <v>6871463</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -16073,10 +16073,10 @@
         <v>45115.375</v>
       </c>
       <c r="E178" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="G178">
         <v>3</v>
@@ -16088,58 +16088,58 @@
         <v>152</v>
       </c>
       <c r="J178">
-        <v>1.5</v>
+        <v>6.25</v>
       </c>
       <c r="K178">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L178">
-        <v>4.333</v>
+        <v>1.333</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N178">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O178">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="P178">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q178">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="R178">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
         <v>-1</v>
       </c>
       <c r="W178">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z178">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB178">
         <v>-1</v>
@@ -16248,7 +16248,7 @@
         <v>118</v>
       </c>
       <c r="F180" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -16417,7 +16417,7 @@
         <v>45116.45833333334</v>
       </c>
       <c r="E182" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F182" t="s">
         <v>77</v>
@@ -16838,7 +16838,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6938729</v>
+        <v>6938728</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16847,56 +16847,56 @@
         <v>45127.54166666666</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="F187" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
         <v>151</v>
       </c>
       <c r="J187">
+        <v>9</v>
+      </c>
+      <c r="K187">
         <v>7</v>
       </c>
-      <c r="K187">
-        <v>6</v>
-      </c>
       <c r="L187">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="M187">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N187">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O187">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="P187">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q187">
+        <v>1.925</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
+        <v>4.75</v>
+      </c>
+      <c r="T187">
+        <v>1.85</v>
+      </c>
+      <c r="U187">
         <v>1.95</v>
       </c>
-      <c r="R187">
-        <v>1.85</v>
-      </c>
-      <c r="S187">
-        <v>4.25</v>
-      </c>
-      <c r="T187">
-        <v>1.95</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
       <c r="V187">
         <v>-1</v>
       </c>
@@ -16904,19 +16904,19 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>0.222</v>
+        <v>0.2</v>
       </c>
       <c r="Y187">
+        <v>0.925</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0.95</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>-1</v>
-      </c>
-      <c r="AB187">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16924,7 +16924,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6938728</v>
+        <v>6938729</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -16933,56 +16933,56 @@
         <v>45127.54166666666</v>
       </c>
       <c r="E188" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="F188" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
         <v>1</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
       </c>
       <c r="I188" t="s">
         <v>151</v>
       </c>
       <c r="J188">
+        <v>7</v>
+      </c>
+      <c r="K188">
+        <v>6</v>
+      </c>
+      <c r="L188">
+        <v>1.25</v>
+      </c>
+      <c r="M188">
         <v>9</v>
       </c>
-      <c r="K188">
-        <v>7</v>
-      </c>
-      <c r="L188">
-        <v>1.166</v>
-      </c>
-      <c r="M188">
-        <v>9.5</v>
-      </c>
       <c r="N188">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O188">
-        <v>1.2</v>
+        <v>1.222</v>
       </c>
       <c r="P188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="T188">
+        <v>1.95</v>
+      </c>
+      <c r="U188">
         <v>1.85</v>
       </c>
-      <c r="U188">
-        <v>1.95</v>
-      </c>
       <c r="V188">
         <v>-1</v>
       </c>
@@ -16990,10 +16990,10 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="Y188">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z188">
         <v>-1</v>
@@ -17002,7 +17002,7 @@
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17108,7 +17108,7 @@
         <v>101</v>
       </c>
       <c r="F190" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -17191,7 +17191,7 @@
         <v>45129.47916666666</v>
       </c>
       <c r="E191" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F191" t="s">
         <v>80</v>
@@ -17621,7 +17621,7 @@
         <v>45133.54166666666</v>
       </c>
       <c r="E196" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F196" t="s">
         <v>108</v>
@@ -18137,7 +18137,7 @@
         <v>45134.54166666666</v>
       </c>
       <c r="E202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F202" t="s">
         <v>35</v>
@@ -18484,7 +18484,7 @@
         <v>93</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18570,7 +18570,7 @@
         <v>116</v>
       </c>
       <c r="F207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G207">
         <v>10</v>
@@ -18828,7 +18828,7 @@
         <v>71</v>
       </c>
       <c r="F210" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G210">
         <v>5</v>
@@ -19086,7 +19086,7 @@
         <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -19602,7 +19602,7 @@
         <v>50</v>
       </c>
       <c r="F219" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20459,7 +20459,7 @@
         <v>45137.45833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F229" t="s">
         <v>78</v>
@@ -20536,7 +20536,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7001619</v>
+        <v>7006603</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -20545,58 +20545,58 @@
         <v>45139.54166666666</v>
       </c>
       <c r="E230" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F230" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G230">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="s">
         <v>150</v>
       </c>
       <c r="J230">
-        <v>1.125</v>
+        <v>1.285</v>
       </c>
       <c r="K230">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="L230">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M230">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="N230">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="O230">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P230">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q230">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S230">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T230">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V230">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20605,13 +20605,13 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AB230">
         <v>-1</v>
@@ -20622,7 +20622,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7001665</v>
+        <v>7001619</v>
       </c>
       <c r="C231" t="s">
         <v>27</v>
@@ -20631,19 +20631,19 @@
         <v>45139.54166666666</v>
       </c>
       <c r="E231" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F231" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J231">
         <v>1.125</v>
@@ -20655,52 +20655,52 @@
         <v>11</v>
       </c>
       <c r="M231">
-        <v>1.222</v>
+        <v>1.125</v>
       </c>
       <c r="N231">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O231">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="P231">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q231">
+        <v>1.8</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>4</v>
+      </c>
+      <c r="T231">
         <v>1.85</v>
       </c>
-      <c r="R231">
+      <c r="U231">
         <v>1.95</v>
       </c>
-      <c r="S231">
-        <v>5</v>
-      </c>
-      <c r="T231">
-        <v>1.95</v>
-      </c>
-      <c r="U231">
-        <v>1.85</v>
-      </c>
       <c r="V231">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W231">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20708,7 +20708,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7006603</v>
+        <v>7001665</v>
       </c>
       <c r="C232" t="s">
         <v>27</v>
@@ -20717,76 +20717,76 @@
         <v>45139.54166666666</v>
       </c>
       <c r="E232" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F232" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G232">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J232">
-        <v>1.285</v>
+        <v>1.125</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="L232">
+        <v>11</v>
+      </c>
+      <c r="M232">
+        <v>1.222</v>
+      </c>
+      <c r="N232">
         <v>7</v>
       </c>
-      <c r="M232">
-        <v>1.25</v>
-      </c>
-      <c r="N232">
-        <v>5.75</v>
-      </c>
       <c r="O232">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P232">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="Q232">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R232">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="T232">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U232">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -20880,7 +20880,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7011137</v>
+        <v>7006649</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20889,76 +20889,76 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E234" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="G234">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J234">
-        <v>1.142</v>
+        <v>9</v>
       </c>
       <c r="K234">
+        <v>5.5</v>
+      </c>
+      <c r="L234">
+        <v>1.222</v>
+      </c>
+      <c r="M234">
+        <v>9.5</v>
+      </c>
+      <c r="N234">
         <v>7</v>
       </c>
-      <c r="L234">
-        <v>10</v>
-      </c>
-      <c r="M234">
-        <v>1.04</v>
-      </c>
-      <c r="N234">
-        <v>15</v>
-      </c>
       <c r="O234">
-        <v>34</v>
+        <v>1.2</v>
       </c>
       <c r="P234">
-        <v>-3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q234">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
         <v>4.25</v>
       </c>
       <c r="T234">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V234">
-        <v>0.04000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y234">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20966,7 +20966,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7006649</v>
+        <v>7011137</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20975,76 +20975,76 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E235" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F235" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J235">
-        <v>9</v>
+        <v>1.142</v>
       </c>
       <c r="K235">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L235">
-        <v>1.222</v>
+        <v>10</v>
       </c>
       <c r="M235">
-        <v>9.5</v>
+        <v>1.04</v>
       </c>
       <c r="N235">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O235">
-        <v>1.2</v>
+        <v>34</v>
       </c>
       <c r="P235">
-        <v>2.25</v>
+        <v>-3.5</v>
       </c>
       <c r="Q235">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S235">
         <v>4.25</v>
       </c>
       <c r="T235">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U235">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V235">
-        <v>-1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -21061,7 +21061,7 @@
         <v>45140.52083333334</v>
       </c>
       <c r="E236" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F236" t="s">
         <v>76</v>
@@ -21138,7 +21138,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7006660</v>
+        <v>7006602</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
@@ -21147,13 +21147,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="E237" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F237" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21162,34 +21162,34 @@
         <v>150</v>
       </c>
       <c r="J237">
-        <v>13</v>
+        <v>1.666</v>
       </c>
       <c r="K237">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L237">
-        <v>1.083</v>
+        <v>3.75</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="N237">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="O237">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="P237">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Q237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T237">
         <v>1.85</v>
@@ -21198,7 +21198,7 @@
         <v>1.95</v>
       </c>
       <c r="V237">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21207,7 +21207,7 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z237">
         <v>-1</v>
@@ -21224,7 +21224,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7006602</v>
+        <v>7006660</v>
       </c>
       <c r="C238" t="s">
         <v>27</v>
@@ -21233,13 +21233,13 @@
         <v>45140.54166666666</v>
       </c>
       <c r="E238" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21248,34 +21248,34 @@
         <v>150</v>
       </c>
       <c r="J238">
-        <v>1.666</v>
+        <v>13</v>
       </c>
       <c r="K238">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>1.083</v>
       </c>
       <c r="M238">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="N238">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="O238">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="P238">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Q238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="T238">
         <v>1.85</v>
@@ -21284,7 +21284,7 @@
         <v>1.95</v>
       </c>
       <c r="V238">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21293,7 +21293,7 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z238">
         <v>-1</v>
@@ -21494,7 +21494,7 @@
         <v>111</v>
       </c>
       <c r="F241" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G241">
         <v>5</v>
@@ -21749,10 +21749,10 @@
         <v>45141.52083333334</v>
       </c>
       <c r="E244" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F244" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21921,10 +21921,10 @@
         <v>45141.52083333334</v>
       </c>
       <c r="E246" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F246" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -22437,7 +22437,7 @@
         <v>45142.52083333334</v>
       </c>
       <c r="E252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F252" t="s">
         <v>74</v>
@@ -22600,7 +22600,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7014074</v>
+        <v>7013978</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22609,76 +22609,76 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F254" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H254">
         <v>2</v>
       </c>
       <c r="I254" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J254">
-        <v>2.75</v>
+        <v>26</v>
       </c>
       <c r="K254">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="L254">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
       <c r="M254">
-        <v>2.25</v>
+        <v>41</v>
       </c>
       <c r="N254">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="O254">
-        <v>2.75</v>
+        <v>1.025</v>
       </c>
       <c r="P254">
-        <v>-0.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q254">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R254">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S254">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="T254">
+        <v>1.825</v>
+      </c>
+      <c r="U254">
         <v>1.975</v>
       </c>
-      <c r="U254">
-        <v>1.825</v>
-      </c>
       <c r="V254">
         <v>-1</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="X254">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z254">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22772,7 +22772,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7013978</v>
+        <v>7014074</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22781,76 +22781,76 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E256" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F256" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J256">
-        <v>26</v>
+        <v>2.75</v>
       </c>
       <c r="K256">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="L256">
-        <v>1.02</v>
+        <v>2.2</v>
       </c>
       <c r="M256">
-        <v>41</v>
+        <v>2.25</v>
       </c>
       <c r="N256">
-        <v>19</v>
+        <v>3.25</v>
       </c>
       <c r="O256">
-        <v>1.025</v>
+        <v>2.75</v>
       </c>
       <c r="P256">
-        <v>4.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="T256">
+        <v>1.975</v>
+      </c>
+      <c r="U256">
         <v>1.825</v>
       </c>
-      <c r="U256">
-        <v>1.975</v>
-      </c>
       <c r="V256">
         <v>-1</v>
       </c>
       <c r="W256">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y256">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22858,7 +22858,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7013976</v>
+        <v>7013944</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22867,76 +22867,76 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E257" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F257" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>3</v>
+      </c>
+      <c r="I257" t="s">
+        <v>151</v>
+      </c>
+      <c r="J257">
+        <v>19</v>
+      </c>
+      <c r="K257">
+        <v>13</v>
+      </c>
+      <c r="L257">
+        <v>1.05</v>
+      </c>
+      <c r="M257">
+        <v>21</v>
+      </c>
+      <c r="N257">
         <v>11</v>
       </c>
-      <c r="H257">
-        <v>0</v>
-      </c>
-      <c r="I257" t="s">
-        <v>150</v>
-      </c>
-      <c r="J257">
+      <c r="O257">
         <v>1.04</v>
       </c>
-      <c r="K257">
-        <v>15</v>
-      </c>
-      <c r="L257">
-        <v>23</v>
-      </c>
-      <c r="M257">
-        <v>1.004</v>
-      </c>
-      <c r="N257">
-        <v>41</v>
-      </c>
-      <c r="O257">
-        <v>51</v>
-      </c>
       <c r="P257">
-        <v>-5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q257">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R257">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="T257">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>0.004000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="Y257">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22944,7 +22944,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7013944</v>
+        <v>7013976</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22953,76 +22953,76 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E258" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F258" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J258">
-        <v>19</v>
+        <v>1.04</v>
       </c>
       <c r="K258">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L258">
-        <v>1.05</v>
+        <v>23</v>
       </c>
       <c r="M258">
-        <v>21</v>
+        <v>1.004</v>
       </c>
       <c r="N258">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="O258">
-        <v>1.04</v>
+        <v>51</v>
       </c>
       <c r="P258">
-        <v>3.25</v>
+        <v>-5.5</v>
       </c>
       <c r="Q258">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R258">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S258">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="T258">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U258">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>-1</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="W258">
         <v>-1</v>
       </c>
       <c r="X258">
-        <v>0.04000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB258">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -23632,7 +23632,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7017825</v>
+        <v>7017817</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23641,73 +23641,73 @@
         <v>45143.33333333334</v>
       </c>
       <c r="E266" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F266" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G266">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I266" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J266">
-        <v>2.25</v>
+        <v>21</v>
       </c>
       <c r="K266">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L266">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="M266">
-        <v>2.375</v>
+        <v>29</v>
       </c>
       <c r="N266">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="O266">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="P266">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Q266">
+        <v>1.825</v>
+      </c>
+      <c r="R266">
         <v>1.975</v>
       </c>
-      <c r="R266">
-        <v>1.825</v>
-      </c>
       <c r="S266">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="T266">
+        <v>1.85</v>
+      </c>
+      <c r="U266">
         <v>1.95</v>
       </c>
-      <c r="U266">
-        <v>1.85</v>
-      </c>
       <c r="V266">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="Y266">
+        <v>-1</v>
+      </c>
+      <c r="Z266">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z266">
-        <v>-1</v>
-      </c>
       <c r="AA266">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB266">
         <v>-1</v>
@@ -23718,7 +23718,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7017817</v>
+        <v>7017825</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23727,73 +23727,73 @@
         <v>45143.33333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H267">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J267">
-        <v>21</v>
+        <v>2.25</v>
       </c>
       <c r="K267">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L267">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="M267">
-        <v>29</v>
+        <v>2.375</v>
       </c>
       <c r="N267">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="O267">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="P267">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="Q267">
+        <v>1.975</v>
+      </c>
+      <c r="R267">
         <v>1.825</v>
       </c>
-      <c r="R267">
-        <v>1.975</v>
-      </c>
       <c r="S267">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="T267">
+        <v>1.95</v>
+      </c>
+      <c r="U267">
         <v>1.85</v>
       </c>
-      <c r="U267">
-        <v>1.95</v>
-      </c>
       <c r="V267">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>0.04000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z267">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB267">
         <v>-1</v>
@@ -24587,7 +24587,7 @@
         <v>45147.52083333334</v>
       </c>
       <c r="E277" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F277" t="s">
         <v>122</v>
@@ -25106,7 +25106,7 @@
         <v>81</v>
       </c>
       <c r="F283" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -25180,7 +25180,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7040455</v>
+        <v>7040456</v>
       </c>
       <c r="C284" t="s">
         <v>27</v>
@@ -25189,58 +25189,58 @@
         <v>45148.52083333334</v>
       </c>
       <c r="E284" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F284" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="s">
         <v>150</v>
       </c>
       <c r="J284">
-        <v>3.8</v>
+        <v>1.062</v>
       </c>
       <c r="K284">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="L284">
-        <v>1.615</v>
+        <v>15</v>
       </c>
       <c r="M284">
-        <v>2.75</v>
+        <v>1.045</v>
       </c>
       <c r="N284">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="O284">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="P284">
-        <v>0.25</v>
+        <v>-4</v>
       </c>
       <c r="Q284">
+        <v>1.825</v>
+      </c>
+      <c r="R284">
+        <v>1.975</v>
+      </c>
+      <c r="S284">
+        <v>5.5</v>
+      </c>
+      <c r="T284">
+        <v>1.85</v>
+      </c>
+      <c r="U284">
         <v>1.95</v>
       </c>
-      <c r="R284">
-        <v>1.85</v>
-      </c>
-      <c r="S284">
-        <v>3.75</v>
-      </c>
-      <c r="T284">
-        <v>1.975</v>
-      </c>
-      <c r="U284">
-        <v>1.825</v>
-      </c>
       <c r="V284">
-        <v>1.75</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="W284">
         <v>-1</v>
@@ -25249,16 +25249,16 @@
         <v>-1</v>
       </c>
       <c r="Y284">
+        <v>-1</v>
+      </c>
+      <c r="Z284">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA284">
+        <v>-1</v>
+      </c>
+      <c r="AB284">
         <v>0.95</v>
-      </c>
-      <c r="Z284">
-        <v>-1</v>
-      </c>
-      <c r="AA284">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB284">
-        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:28">
@@ -25275,7 +25275,7 @@
         <v>45148.52083333334</v>
       </c>
       <c r="E285" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F285" t="s">
         <v>66</v>
@@ -25361,7 +25361,7 @@
         <v>45148.52083333334</v>
       </c>
       <c r="E286" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F286" t="s">
         <v>35</v>
@@ -25438,7 +25438,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7040410</v>
+        <v>7040455</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25447,73 +25447,73 @@
         <v>45148.52083333334</v>
       </c>
       <c r="E287" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F287" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G287">
+        <v>4</v>
+      </c>
+      <c r="H287">
         <v>1</v>
       </c>
-      <c r="H287">
-        <v>4</v>
-      </c>
       <c r="I287" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J287">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K287">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="L287">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="M287">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N287">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O287">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P287">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q287">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R287">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S287">
         <v>3.75</v>
       </c>
       <c r="T287">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U287">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z287">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -25524,7 +25524,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7040456</v>
+        <v>7040410</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -25533,49 +25533,49 @@
         <v>45148.52083333334</v>
       </c>
       <c r="E288" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F288" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="G288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I288" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J288">
-        <v>1.062</v>
+        <v>4</v>
       </c>
       <c r="K288">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L288">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="M288">
-        <v>1.045</v>
+        <v>4</v>
       </c>
       <c r="N288">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O288">
-        <v>26</v>
+        <v>1.5</v>
       </c>
       <c r="P288">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Q288">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R288">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S288">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T288">
         <v>1.85</v>
@@ -25584,25 +25584,25 @@
         <v>1.95</v>
       </c>
       <c r="V288">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB288">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:28">
@@ -25610,7 +25610,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7040460</v>
+        <v>7040459</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -25619,55 +25619,55 @@
         <v>45148.54166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F289" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
         <v>3</v>
-      </c>
-      <c r="H289">
-        <v>4</v>
       </c>
       <c r="I289" t="s">
         <v>151</v>
       </c>
       <c r="J289">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="K289">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="L289">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="M289">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N289">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O289">
-        <v>1.166</v>
+        <v>1.083</v>
       </c>
       <c r="P289">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q289">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R289">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S289">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T289">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U289">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V289">
         <v>-1</v>
@@ -25676,19 +25676,19 @@
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>0.1659999999999999</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Y289">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z289">
         <v>-1</v>
       </c>
       <c r="AA289">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="290" spans="1:28">
@@ -25696,7 +25696,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7040459</v>
+        <v>7040460</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -25705,55 +25705,55 @@
         <v>45148.54166666666</v>
       </c>
       <c r="E290" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F290" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I290" t="s">
         <v>151</v>
       </c>
       <c r="J290">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="K290">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="L290">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="M290">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N290">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="O290">
-        <v>1.083</v>
+        <v>1.166</v>
       </c>
       <c r="P290">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q290">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R290">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S290">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T290">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U290">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V290">
         <v>-1</v>
@@ -25762,19 +25762,19 @@
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>0.08299999999999996</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y290">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB290">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:28">
@@ -26310,7 +26310,7 @@
         <v>40</v>
       </c>
       <c r="F297" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26565,7 +26565,7 @@
         <v>45149.54166666666</v>
       </c>
       <c r="E300" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F300" t="s">
         <v>101</v>
@@ -26998,7 +26998,7 @@
         <v>82</v>
       </c>
       <c r="F305" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -27081,10 +27081,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="E306" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F306" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -27339,7 +27339,7 @@
         <v>45153.54166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F309" t="s">
         <v>71</v>
@@ -27425,7 +27425,7 @@
         <v>45153.5625</v>
       </c>
       <c r="E310" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F310" t="s">
         <v>119</v>
@@ -27597,7 +27597,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="E312" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F312" t="s">
         <v>75</v>
@@ -27769,7 +27769,7 @@
         <v>45153.58680555555</v>
       </c>
       <c r="E314" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F314" t="s">
         <v>110</v>
@@ -28199,10 +28199,10 @@
         <v>45154.54166666666</v>
       </c>
       <c r="E319" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F319" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G319">
         <v>2</v>
@@ -28362,7 +28362,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7079561</v>
+        <v>7074706</v>
       </c>
       <c r="C321" t="s">
         <v>27</v>
@@ -28371,64 +28371,64 @@
         <v>45155.52083333334</v>
       </c>
       <c r="E321" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="F321" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="G321">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J321">
+        <v>1.25</v>
+      </c>
+      <c r="K321">
+        <v>6</v>
+      </c>
+      <c r="L321">
+        <v>7</v>
+      </c>
+      <c r="M321">
         <v>1.125</v>
       </c>
-      <c r="K321">
-        <v>7.5</v>
-      </c>
-      <c r="L321">
-        <v>11</v>
-      </c>
-      <c r="M321">
-        <v>1.222</v>
-      </c>
       <c r="N321">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O321">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="P321">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="Q321">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R321">
         <v>1.925</v>
       </c>
       <c r="S321">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="T321">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U321">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
@@ -28437,10 +28437,10 @@
         <v>0.925</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB321">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="322" spans="1:28">
@@ -28448,7 +28448,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7074706</v>
+        <v>7074753</v>
       </c>
       <c r="C322" t="s">
         <v>27</v>
@@ -28457,13 +28457,13 @@
         <v>45155.52083333334</v>
       </c>
       <c r="E322" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="F322" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G322">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -28472,43 +28472,43 @@
         <v>150</v>
       </c>
       <c r="J322">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="K322">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L322">
+        <v>5.5</v>
+      </c>
+      <c r="M322">
+        <v>1.285</v>
+      </c>
+      <c r="N322">
+        <v>5.5</v>
+      </c>
+      <c r="O322">
         <v>7</v>
       </c>
-      <c r="M322">
-        <v>1.125</v>
-      </c>
-      <c r="N322">
-        <v>9</v>
-      </c>
-      <c r="O322">
-        <v>12</v>
-      </c>
       <c r="P322">
-        <v>-2.75</v>
+        <v>-2</v>
       </c>
       <c r="Q322">
+        <v>1.925</v>
+      </c>
+      <c r="R322">
         <v>1.775</v>
       </c>
-      <c r="R322">
-        <v>1.925</v>
-      </c>
       <c r="S322">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T322">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V322">
-        <v>0.125</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -28517,16 +28517,16 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z322">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -28534,7 +28534,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7074753</v>
+        <v>7079561</v>
       </c>
       <c r="C323" t="s">
         <v>27</v>
@@ -28543,49 +28543,49 @@
         <v>45155.52083333334</v>
       </c>
       <c r="E323" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F323" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G323">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J323">
-        <v>1.4</v>
+        <v>1.125</v>
       </c>
       <c r="K323">
+        <v>7.5</v>
+      </c>
+      <c r="L323">
+        <v>11</v>
+      </c>
+      <c r="M323">
+        <v>1.222</v>
+      </c>
+      <c r="N323">
+        <v>7.5</v>
+      </c>
+      <c r="O323">
+        <v>8.5</v>
+      </c>
+      <c r="P323">
+        <v>-2.25</v>
+      </c>
+      <c r="Q323">
+        <v>1.875</v>
+      </c>
+      <c r="R323">
+        <v>1.925</v>
+      </c>
+      <c r="S323">
         <v>4.5</v>
-      </c>
-      <c r="L323">
-        <v>5.5</v>
-      </c>
-      <c r="M323">
-        <v>1.285</v>
-      </c>
-      <c r="N323">
-        <v>5.5</v>
-      </c>
-      <c r="O323">
-        <v>7</v>
-      </c>
-      <c r="P323">
-        <v>-2</v>
-      </c>
-      <c r="Q323">
-        <v>1.925</v>
-      </c>
-      <c r="R323">
-        <v>1.775</v>
-      </c>
-      <c r="S323">
-        <v>4</v>
       </c>
       <c r="T323">
         <v>1.85</v>
@@ -28594,25 +28594,25 @@
         <v>1.95</v>
       </c>
       <c r="V323">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y323">
+        <v>-1</v>
+      </c>
+      <c r="Z323">
         <v>0.925</v>
       </c>
-      <c r="Z323">
-        <v>-1</v>
-      </c>
       <c r="AA323">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28890,7 +28890,7 @@
         <v>65</v>
       </c>
       <c r="F327" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G327">
         <v>5</v>
@@ -28964,7 +28964,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7080186</v>
+        <v>7080248</v>
       </c>
       <c r="C328" t="s">
         <v>27</v>
@@ -28973,40 +28973,40 @@
         <v>45156.5</v>
       </c>
       <c r="E328" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F328" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H328">
         <v>2</v>
       </c>
       <c r="I328" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J328">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K328">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L328">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="M328">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N328">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="O328">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="P328">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Q328">
         <v>1.9</v>
@@ -29015,22 +29015,22 @@
         <v>1.9</v>
       </c>
       <c r="S328">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T328">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U328">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
         <v>-1</v>
       </c>
       <c r="W328">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y328">
         <v>0.8999999999999999</v>
@@ -29039,10 +29039,10 @@
         <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="329" spans="1:28">
@@ -29050,7 +29050,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7080248</v>
+        <v>7080186</v>
       </c>
       <c r="C329" t="s">
         <v>27</v>
@@ -29059,40 +29059,40 @@
         <v>45156.5</v>
       </c>
       <c r="E329" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F329" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H329">
         <v>2</v>
       </c>
       <c r="I329" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J329">
+        <v>3.2</v>
+      </c>
+      <c r="K329">
+        <v>3.6</v>
+      </c>
+      <c r="L329">
+        <v>1.909</v>
+      </c>
+      <c r="M329">
         <v>5</v>
       </c>
-      <c r="K329">
-        <v>5</v>
-      </c>
-      <c r="L329">
-        <v>1.4</v>
-      </c>
-      <c r="M329">
-        <v>15</v>
-      </c>
       <c r="N329">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O329">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="P329">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q329">
         <v>1.9</v>
@@ -29101,22 +29101,22 @@
         <v>1.9</v>
       </c>
       <c r="S329">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T329">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U329">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
         <v>-1</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X329">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>0.8999999999999999</v>
@@ -29125,10 +29125,10 @@
         <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB329">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:28">
@@ -29394,7 +29394,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7080247</v>
+        <v>7080241</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
@@ -29403,76 +29403,76 @@
         <v>45156.54166666666</v>
       </c>
       <c r="E333" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F333" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H333">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J333">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="K333">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L333">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="M333">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N333">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O333">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="P333">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q333">
+        <v>1.925</v>
+      </c>
+      <c r="R333">
         <v>1.875</v>
       </c>
-      <c r="R333">
+      <c r="S333">
+        <v>3.25</v>
+      </c>
+      <c r="T333">
+        <v>1.775</v>
+      </c>
+      <c r="U333">
         <v>1.925</v>
       </c>
-      <c r="S333">
-        <v>4</v>
-      </c>
-      <c r="T333">
-        <v>1.95</v>
-      </c>
-      <c r="U333">
-        <v>1.85</v>
-      </c>
       <c r="V333">
         <v>-1</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X333">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z333">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29480,7 +29480,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7080241</v>
+        <v>7080247</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -29489,76 +29489,76 @@
         <v>45156.54166666666</v>
       </c>
       <c r="E334" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F334" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I334" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J334">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="K334">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L334">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="M334">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N334">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O334">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="P334">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q334">
+        <v>1.875</v>
+      </c>
+      <c r="R334">
         <v>1.925</v>
       </c>
-      <c r="R334">
-        <v>1.875</v>
-      </c>
       <c r="S334">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T334">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
         <v>-1</v>
       </c>
       <c r="W334">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y334">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB334">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -30008,7 +30008,7 @@
         <v>122</v>
       </c>
       <c r="F340" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G340">
         <v>4</v>
@@ -30094,7 +30094,7 @@
         <v>112</v>
       </c>
       <c r="F341" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -30438,7 +30438,7 @@
         <v>88</v>
       </c>
       <c r="F345" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G345">
         <v>4</v>
@@ -30865,7 +30865,7 @@
         <v>45161.52083333334</v>
       </c>
       <c r="E350" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F350" t="s">
         <v>95</v>
@@ -30951,7 +30951,7 @@
         <v>45161.52083333334</v>
       </c>
       <c r="E351" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F351" t="s">
         <v>123</v>
@@ -31037,7 +31037,7 @@
         <v>45161.54166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F352" t="s">
         <v>50</v>
@@ -31286,7 +31286,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7108431</v>
+        <v>7108432</v>
       </c>
       <c r="C355" t="s">
         <v>27</v>
@@ -31295,76 +31295,76 @@
         <v>45162.52083333334</v>
       </c>
       <c r="E355" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="F355" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G355">
         <v>2</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J355">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K355">
         <v>4</v>
       </c>
       <c r="L355">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="M355">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N355">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O355">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="P355">
+        <v>-0.25</v>
+      </c>
+      <c r="Q355">
+        <v>1.825</v>
+      </c>
+      <c r="R355">
+        <v>1.975</v>
+      </c>
+      <c r="S355">
+        <v>4.25</v>
+      </c>
+      <c r="T355">
+        <v>1.975</v>
+      </c>
+      <c r="U355">
+        <v>1.825</v>
+      </c>
+      <c r="V355">
         <v>1</v>
       </c>
-      <c r="Q355">
-        <v>1.775</v>
-      </c>
-      <c r="R355">
-        <v>1.925</v>
-      </c>
-      <c r="S355">
-        <v>4</v>
-      </c>
-      <c r="T355">
-        <v>1.9</v>
-      </c>
-      <c r="U355">
-        <v>1.9</v>
-      </c>
-      <c r="V355">
-        <v>-1</v>
-      </c>
       <c r="W355">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31381,10 +31381,10 @@
         <v>45162.52083333334</v>
       </c>
       <c r="E356" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F356" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G356">
         <v>3</v>
@@ -31458,7 +31458,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7108432</v>
+        <v>7108431</v>
       </c>
       <c r="C357" t="s">
         <v>27</v>
@@ -31467,76 +31467,76 @@
         <v>45162.52083333334</v>
       </c>
       <c r="E357" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="F357" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="G357">
         <v>2</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J357">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K357">
         <v>4</v>
       </c>
       <c r="L357">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="M357">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N357">
+        <v>4.75</v>
+      </c>
+      <c r="O357">
+        <v>1.65</v>
+      </c>
+      <c r="P357">
+        <v>1</v>
+      </c>
+      <c r="Q357">
+        <v>1.775</v>
+      </c>
+      <c r="R357">
+        <v>1.925</v>
+      </c>
+      <c r="S357">
         <v>4</v>
       </c>
-      <c r="O357">
-        <v>2.8</v>
-      </c>
-      <c r="P357">
-        <v>-0.25</v>
-      </c>
-      <c r="Q357">
-        <v>1.825</v>
-      </c>
-      <c r="R357">
-        <v>1.975</v>
-      </c>
-      <c r="S357">
-        <v>4.25</v>
-      </c>
       <c r="T357">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U357">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V357">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W357">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X357">
         <v>-1</v>
       </c>
       <c r="Y357">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z357">
         <v>-1</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB357">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:28">
@@ -31544,7 +31544,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7108442</v>
+        <v>7108436</v>
       </c>
       <c r="C358" t="s">
         <v>27</v>
@@ -31553,76 +31553,76 @@
         <v>45162.54166666666</v>
       </c>
       <c r="E358" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F358" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J358">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K358">
+        <v>3.4</v>
+      </c>
+      <c r="L358">
+        <v>2.2</v>
+      </c>
+      <c r="M358">
+        <v>2.1</v>
+      </c>
+      <c r="N358">
+        <v>3.6</v>
+      </c>
+      <c r="O358">
+        <v>2.8</v>
+      </c>
+      <c r="P358">
+        <v>-0.25</v>
+      </c>
+      <c r="Q358">
+        <v>1.9</v>
+      </c>
+      <c r="R358">
+        <v>1.9</v>
+      </c>
+      <c r="S358">
         <v>3.75</v>
       </c>
-      <c r="L358">
-        <v>1.909</v>
-      </c>
-      <c r="M358">
-        <v>2.6</v>
-      </c>
-      <c r="N358">
-        <v>3.75</v>
-      </c>
-      <c r="O358">
-        <v>2.25</v>
-      </c>
-      <c r="P358">
-        <v>0.25</v>
-      </c>
-      <c r="Q358">
-        <v>1.775</v>
-      </c>
-      <c r="R358">
-        <v>2.025</v>
-      </c>
-      <c r="S358">
-        <v>4</v>
-      </c>
       <c r="T358">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U358">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V358">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W358">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X358">
         <v>-1</v>
       </c>
       <c r="Y358">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB358">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:28">
@@ -31630,7 +31630,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7108441</v>
+        <v>7108442</v>
       </c>
       <c r="C359" t="s">
         <v>27</v>
@@ -31639,76 +31639,76 @@
         <v>45162.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F359" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J359">
         <v>3.1</v>
       </c>
       <c r="K359">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L359">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M359">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N359">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O359">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="P359">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q359">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S359">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T359">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U359">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V359">
         <v>-1</v>
       </c>
       <c r="W359">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X359">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z359">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA359">
         <v>-1</v>
       </c>
       <c r="AB359">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:28">
@@ -31716,7 +31716,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7108436</v>
+        <v>7108441</v>
       </c>
       <c r="C360" t="s">
         <v>27</v>
@@ -31725,76 +31725,76 @@
         <v>45162.54166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F360" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G360">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H360">
         <v>2</v>
       </c>
       <c r="I360" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J360">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K360">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L360">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M360">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N360">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O360">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="P360">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q360">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R360">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S360">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T360">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V360">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y360">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA360">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:28">
@@ -31814,7 +31814,7 @@
         <v>64</v>
       </c>
       <c r="F361" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G361">
         <v>2</v>
@@ -32327,7 +32327,7 @@
         <v>45163.52083333334</v>
       </c>
       <c r="E367" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F367" t="s">
         <v>104</v>
@@ -32585,7 +32585,7 @@
         <v>45163.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F370" t="s">
         <v>140</v>
@@ -33445,7 +33445,7 @@
         <v>45164.375</v>
       </c>
       <c r="E380" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F380" t="s">
         <v>112</v>
@@ -33961,7 +33961,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="E386" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F386" t="s">
         <v>113</v>
@@ -34219,10 +34219,10 @@
         <v>45167.54166666666</v>
       </c>
       <c r="E389" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F389" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G389">
         <v>6</v>
@@ -34394,7 +34394,7 @@
         <v>87</v>
       </c>
       <c r="F391" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -34566,7 +34566,7 @@
         <v>96</v>
       </c>
       <c r="F393" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G393">
         <v>4</v>
@@ -34640,7 +34640,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7142191</v>
+        <v>7142193</v>
       </c>
       <c r="C394" t="s">
         <v>27</v>
@@ -34649,55 +34649,55 @@
         <v>45169.52083333334</v>
       </c>
       <c r="E394" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F394" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="G394">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H394">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I394" t="s">
         <v>151</v>
       </c>
       <c r="J394">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K394">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L394">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="M394">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="N394">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O394">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="P394">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q394">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R394">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S394">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="T394">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V394">
         <v>-1</v>
@@ -34706,19 +34706,19 @@
         <v>-1</v>
       </c>
       <c r="X394">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y394">
         <v>-1</v>
       </c>
       <c r="Z394">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA394">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="395" spans="1:28">
@@ -34726,7 +34726,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7142193</v>
+        <v>7142191</v>
       </c>
       <c r="C395" t="s">
         <v>27</v>
@@ -34735,56 +34735,56 @@
         <v>45169.52083333334</v>
       </c>
       <c r="E395" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F395" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I395" t="s">
         <v>151</v>
       </c>
       <c r="J395">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K395">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L395">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="M395">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="N395">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O395">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="P395">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q395">
+        <v>1.8</v>
+      </c>
+      <c r="R395">
+        <v>2</v>
+      </c>
+      <c r="S395">
+        <v>4.75</v>
+      </c>
+      <c r="T395">
         <v>1.9</v>
       </c>
-      <c r="R395">
+      <c r="U395">
         <v>1.9</v>
       </c>
-      <c r="S395">
-        <v>3.25</v>
-      </c>
-      <c r="T395">
-        <v>1.825</v>
-      </c>
-      <c r="U395">
-        <v>1.975</v>
-      </c>
       <c r="V395">
         <v>-1</v>
       </c>
@@ -34792,19 +34792,19 @@
         <v>-1</v>
       </c>
       <c r="X395">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y395">
         <v>-1</v>
       </c>
       <c r="Z395">
+        <v>1</v>
+      </c>
+      <c r="AA395">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA395">
-        <v>-1</v>
-      </c>
       <c r="AB395">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:28">
@@ -35082,7 +35082,7 @@
         <v>35</v>
       </c>
       <c r="F399" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>45170.54166666666</v>
       </c>
       <c r="E404" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F404" t="s">
         <v>94</v>
@@ -35684,7 +35684,7 @@
         <v>45</v>
       </c>
       <c r="F406" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G406">
         <v>0</v>
@@ -35856,7 +35856,7 @@
         <v>98</v>
       </c>
       <c r="F408" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G408">
         <v>3</v>
@@ -36188,7 +36188,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7155141</v>
+        <v>7150821</v>
       </c>
       <c r="C412" t="s">
         <v>27</v>
@@ -36197,73 +36197,73 @@
         <v>45171.33333333334</v>
       </c>
       <c r="E412" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F412" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G412">
         <v>3</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I412" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J412">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="K412">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L412">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="M412">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="N412">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O412">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="P412">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q412">
+        <v>1.95</v>
+      </c>
+      <c r="R412">
         <v>1.85</v>
       </c>
-      <c r="R412">
+      <c r="S412">
+        <v>3.75</v>
+      </c>
+      <c r="T412">
+        <v>1.85</v>
+      </c>
+      <c r="U412">
         <v>1.95</v>
       </c>
-      <c r="S412">
-        <v>3.5</v>
-      </c>
-      <c r="T412">
-        <v>1.8</v>
-      </c>
-      <c r="U412">
-        <v>2</v>
-      </c>
       <c r="V412">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W412">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X412">
         <v>-1</v>
       </c>
       <c r="Y412">
+        <v>-0.5</v>
+      </c>
+      <c r="Z412">
+        <v>0.425</v>
+      </c>
+      <c r="AA412">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z412">
-        <v>-1</v>
-      </c>
-      <c r="AA412">
-        <v>0.8</v>
       </c>
       <c r="AB412">
         <v>-1</v>
@@ -36274,7 +36274,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7150821</v>
+        <v>7155141</v>
       </c>
       <c r="C413" t="s">
         <v>27</v>
@@ -36283,73 +36283,73 @@
         <v>45171.33333333334</v>
       </c>
       <c r="E413" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F413" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <v>3</v>
       </c>
       <c r="H413">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I413" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J413">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="K413">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L413">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="M413">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="N413">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O413">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="P413">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q413">
+        <v>1.85</v>
+      </c>
+      <c r="R413">
         <v>1.95</v>
       </c>
-      <c r="R413">
-        <v>1.85</v>
-      </c>
       <c r="S413">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T413">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U413">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V413">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W413">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X413">
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z413">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA413">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB413">
         <v>-1</v>
@@ -37487,7 +37487,7 @@
         <v>45175.52083333334</v>
       </c>
       <c r="E427" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F427" t="s">
         <v>46</v>
@@ -37650,7 +37650,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>7169002</v>
+        <v>7169003</v>
       </c>
       <c r="C429" t="s">
         <v>27</v>
@@ -37659,67 +37659,67 @@
         <v>45175.59375</v>
       </c>
       <c r="E429" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F429" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G429">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J429">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="K429">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L429">
-        <v>14</v>
+        <v>1.2</v>
       </c>
       <c r="M429">
-        <v>1.25</v>
+        <v>29</v>
       </c>
       <c r="N429">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O429">
-        <v>8</v>
+        <v>1.05</v>
       </c>
       <c r="P429">
-        <v>-2</v>
+        <v>3.75</v>
       </c>
       <c r="Q429">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R429">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S429">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T429">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U429">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V429">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W429">
         <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="Y429">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z429">
         <v>-1</v>
@@ -37728,7 +37728,7 @@
         <v>-1</v>
       </c>
       <c r="AB429">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37736,7 +37736,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7169003</v>
+        <v>7169002</v>
       </c>
       <c r="C430" t="s">
         <v>27</v>
@@ -37745,67 +37745,67 @@
         <v>45175.59375</v>
       </c>
       <c r="E430" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F430" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G430">
+        <v>3</v>
+      </c>
+      <c r="H430">
         <v>0</v>
       </c>
-      <c r="H430">
-        <v>2</v>
-      </c>
       <c r="I430" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J430">
+        <v>1.1</v>
+      </c>
+      <c r="K430">
+        <v>9</v>
+      </c>
+      <c r="L430">
+        <v>14</v>
+      </c>
+      <c r="M430">
+        <v>1.25</v>
+      </c>
+      <c r="N430">
+        <v>6</v>
+      </c>
+      <c r="O430">
         <v>8</v>
       </c>
-      <c r="K430">
-        <v>6.5</v>
-      </c>
-      <c r="L430">
-        <v>1.2</v>
-      </c>
-      <c r="M430">
-        <v>29</v>
-      </c>
-      <c r="N430">
-        <v>13</v>
-      </c>
-      <c r="O430">
-        <v>1.05</v>
-      </c>
       <c r="P430">
-        <v>3.75</v>
+        <v>-2</v>
       </c>
       <c r="Q430">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R430">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S430">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T430">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U430">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V430">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W430">
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>0.05000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z430">
         <v>-1</v>
@@ -37814,7 +37814,7 @@
         <v>-1</v>
       </c>
       <c r="AB430">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -38178,7 +38178,7 @@
         <v>66</v>
       </c>
       <c r="F435" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G435">
         <v>5</v>
@@ -38261,7 +38261,7 @@
         <v>45176.58333333334</v>
       </c>
       <c r="E436" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F436" t="s">
         <v>33</v>
@@ -38510,7 +38510,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7177551</v>
+        <v>7177559</v>
       </c>
       <c r="C439" t="s">
         <v>27</v>
@@ -38519,76 +38519,76 @@
         <v>45177.5</v>
       </c>
       <c r="E439" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F439" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="G439">
+        <v>3</v>
+      </c>
+      <c r="H439">
         <v>1</v>
       </c>
-      <c r="H439">
-        <v>3</v>
-      </c>
       <c r="I439" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J439">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="K439">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L439">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="M439">
-        <v>2.9</v>
+        <v>1.071</v>
       </c>
       <c r="N439">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O439">
-        <v>1.95</v>
+        <v>21</v>
       </c>
       <c r="P439">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="Q439">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R439">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S439">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="T439">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U439">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V439">
-        <v>-1</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="W439">
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y439">
         <v>-1</v>
       </c>
       <c r="Z439">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA439">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB439">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="440" spans="1:28">
@@ -38596,7 +38596,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7177453</v>
+        <v>7177551</v>
       </c>
       <c r="C440" t="s">
         <v>27</v>
@@ -38605,16 +38605,16 @@
         <v>45177.5</v>
       </c>
       <c r="E440" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F440" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I440" t="s">
         <v>151</v>
@@ -38623,37 +38623,37 @@
         <v>3.25</v>
       </c>
       <c r="K440">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L440">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="M440">
+        <v>2.9</v>
+      </c>
+      <c r="N440">
         <v>4</v>
       </c>
-      <c r="N440">
-        <v>3.8</v>
-      </c>
       <c r="O440">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="P440">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q440">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R440">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S440">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T440">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U440">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V440">
         <v>-1</v>
@@ -38662,19 +38662,19 @@
         <v>-1</v>
       </c>
       <c r="X440">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA440">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB440">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:28">
@@ -38682,7 +38682,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>7177559</v>
+        <v>7177453</v>
       </c>
       <c r="C441" t="s">
         <v>27</v>
@@ -38691,76 +38691,76 @@
         <v>45177.5</v>
       </c>
       <c r="E441" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F441" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>2</v>
+      </c>
+      <c r="I441" t="s">
+        <v>151</v>
+      </c>
+      <c r="J441">
+        <v>3.25</v>
+      </c>
+      <c r="K441">
+        <v>3.75</v>
+      </c>
+      <c r="L441">
+        <v>1.85</v>
+      </c>
+      <c r="M441">
+        <v>4</v>
+      </c>
+      <c r="N441">
+        <v>3.8</v>
+      </c>
+      <c r="O441">
+        <v>1.65</v>
+      </c>
+      <c r="P441">
+        <v>0.75</v>
+      </c>
+      <c r="Q441">
+        <v>1.925</v>
+      </c>
+      <c r="R441">
+        <v>1.875</v>
+      </c>
+      <c r="S441">
         <v>3</v>
       </c>
-      <c r="H441">
-        <v>1</v>
-      </c>
-      <c r="I441" t="s">
-        <v>150</v>
-      </c>
-      <c r="J441">
-        <v>1.2</v>
-      </c>
-      <c r="K441">
-        <v>6.5</v>
-      </c>
-      <c r="L441">
-        <v>8</v>
-      </c>
-      <c r="M441">
-        <v>1.071</v>
-      </c>
-      <c r="N441">
-        <v>12</v>
-      </c>
-      <c r="O441">
-        <v>21</v>
-      </c>
-      <c r="P441">
-        <v>-2.75</v>
-      </c>
-      <c r="Q441">
-        <v>1.7</v>
-      </c>
-      <c r="R441">
-        <v>2.1</v>
-      </c>
-      <c r="S441">
-        <v>4.25</v>
-      </c>
       <c r="T441">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U441">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V441">
-        <v>0.07099999999999995</v>
+        <v>-1</v>
       </c>
       <c r="W441">
         <v>-1</v>
       </c>
       <c r="X441">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y441">
         <v>-1</v>
       </c>
       <c r="Z441">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA441">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB441">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="442" spans="1:28">
@@ -38949,7 +38949,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="E444" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F444" t="s">
         <v>96</v>
@@ -39035,7 +39035,7 @@
         <v>45177.52083333334</v>
       </c>
       <c r="E445" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F445" t="s">
         <v>38</v>
@@ -39207,7 +39207,7 @@
         <v>45177.54166666666</v>
       </c>
       <c r="E447" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F447" t="s">
         <v>98</v>
@@ -39726,7 +39726,7 @@
         <v>67</v>
       </c>
       <c r="F453" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G453">
         <v>5</v>
@@ -39984,7 +39984,7 @@
         <v>112</v>
       </c>
       <c r="F456" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -40242,7 +40242,7 @@
         <v>54</v>
       </c>
       <c r="F459" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -40325,7 +40325,7 @@
         <v>45181.54166666666</v>
       </c>
       <c r="E460" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F460" t="s">
         <v>108</v>
@@ -41016,7 +41016,7 @@
         <v>92</v>
       </c>
       <c r="F468" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G468">
         <v>3</v>
@@ -41188,7 +41188,7 @@
         <v>34</v>
       </c>
       <c r="F470" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G470">
         <v>3</v>
@@ -41876,7 +41876,7 @@
         <v>47</v>
       </c>
       <c r="F478" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -42045,7 +42045,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="E480" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F480" t="s">
         <v>71</v>
@@ -42220,7 +42220,7 @@
         <v>55</v>
       </c>
       <c r="F482" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G482">
         <v>3</v>
@@ -42306,7 +42306,7 @@
         <v>50</v>
       </c>
       <c r="F483" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G483">
         <v>0</v>
@@ -42561,7 +42561,7 @@
         <v>45189.52083333334</v>
       </c>
       <c r="E486" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F486" t="s">
         <v>105</v>
@@ -43077,10 +43077,10 @@
         <v>45190.58333333334</v>
       </c>
       <c r="E492" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F492" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G492">
         <v>2</v>
@@ -43163,7 +43163,7 @@
         <v>45190.58333333334</v>
       </c>
       <c r="E493" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F493" t="s">
         <v>50</v>
@@ -43421,7 +43421,7 @@
         <v>45191.54166666666</v>
       </c>
       <c r="E496" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F496" t="s">
         <v>89</v>
@@ -44112,7 +44112,7 @@
         <v>123</v>
       </c>
       <c r="F504" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G504">
         <v>0</v>
@@ -45055,7 +45055,7 @@
         <v>45195.51041666666</v>
       </c>
       <c r="E515" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F515" t="s">
         <v>56</v>
@@ -45313,7 +45313,7 @@
         <v>45195.57291666666</v>
       </c>
       <c r="E518" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F518" t="s">
         <v>34</v>
@@ -45390,7 +45390,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7272090</v>
+        <v>7271528</v>
       </c>
       <c r="C519" t="s">
         <v>27</v>
@@ -45399,7 +45399,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="E519" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="F519" t="s">
         <v>28</v>
@@ -45414,43 +45414,43 @@
         <v>150</v>
       </c>
       <c r="J519">
-        <v>1.055</v>
+        <v>1.3</v>
       </c>
       <c r="K519">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="L519">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="M519">
-        <v>1.045</v>
+        <v>1.3</v>
       </c>
       <c r="N519">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="O519">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="P519">
-        <v>-3.75</v>
+        <v>-2</v>
       </c>
       <c r="Q519">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R519">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S519">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="T519">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U519">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V519">
-        <v>0.04499999999999993</v>
+        <v>0.3</v>
       </c>
       <c r="W519">
         <v>-1</v>
@@ -45459,16 +45459,16 @@
         <v>-1</v>
       </c>
       <c r="Y519">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z519">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA519">
         <v>-1</v>
       </c>
       <c r="AB519">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="520" spans="1:28">
@@ -45476,7 +45476,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7271528</v>
+        <v>7272090</v>
       </c>
       <c r="C520" t="s">
         <v>27</v>
@@ -45485,7 +45485,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="E520" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F520" t="s">
         <v>28</v>
@@ -45500,43 +45500,43 @@
         <v>150</v>
       </c>
       <c r="J520">
-        <v>1.3</v>
+        <v>1.055</v>
       </c>
       <c r="K520">
+        <v>13</v>
+      </c>
+      <c r="L520">
+        <v>23</v>
+      </c>
+      <c r="M520">
+        <v>1.045</v>
+      </c>
+      <c r="N520">
+        <v>15</v>
+      </c>
+      <c r="O520">
+        <v>26</v>
+      </c>
+      <c r="P520">
+        <v>-3.75</v>
+      </c>
+      <c r="Q520">
+        <v>1.75</v>
+      </c>
+      <c r="R520">
+        <v>2.05</v>
+      </c>
+      <c r="S520">
         <v>5.25</v>
       </c>
-      <c r="L520">
-        <v>6.5</v>
-      </c>
-      <c r="M520">
-        <v>1.3</v>
-      </c>
-      <c r="N520">
-        <v>5.25</v>
-      </c>
-      <c r="O520">
-        <v>6.5</v>
-      </c>
-      <c r="P520">
-        <v>-2</v>
-      </c>
-      <c r="Q520">
-        <v>1.975</v>
-      </c>
-      <c r="R520">
-        <v>1.825</v>
-      </c>
-      <c r="S520">
-        <v>4.5</v>
-      </c>
       <c r="T520">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U520">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V520">
-        <v>0.3</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="W520">
         <v>-1</v>
@@ -45545,16 +45545,16 @@
         <v>-1</v>
       </c>
       <c r="Y520">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z520">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA520">
         <v>-1</v>
       </c>
       <c r="AB520">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:28">
@@ -45832,7 +45832,7 @@
         <v>33</v>
       </c>
       <c r="F524" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G524">
         <v>6</v>
@@ -45915,7 +45915,7 @@
         <v>45198.47916666666</v>
       </c>
       <c r="E525" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F525" t="s">
         <v>139</v>
@@ -46087,7 +46087,7 @@
         <v>45198.54166666666</v>
       </c>
       <c r="E527" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F527" t="s">
         <v>48</v>
@@ -46689,10 +46689,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="E534" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F534" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G534">
         <v>1</v>
@@ -46861,7 +46861,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="E536" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F536" t="s">
         <v>73</v>
@@ -47036,7 +47036,7 @@
         <v>67</v>
       </c>
       <c r="F538" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G538">
         <v>1</v>
@@ -47979,7 +47979,7 @@
         <v>45205.52083333334</v>
       </c>
       <c r="E549" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F549" t="s">
         <v>34</v>
@@ -48068,7 +48068,7 @@
         <v>110</v>
       </c>
       <c r="F550" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G550">
         <v>0</v>
@@ -48142,7 +48142,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>7298751</v>
+        <v>7298752</v>
       </c>
       <c r="C551" t="s">
         <v>27</v>
@@ -48151,73 +48151,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E551" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F551" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="G551">
+        <v>5</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+      <c r="I551" t="s">
+        <v>150</v>
+      </c>
+      <c r="J551">
+        <v>1.533</v>
+      </c>
+      <c r="K551">
+        <v>4</v>
+      </c>
+      <c r="L551">
+        <v>4.75</v>
+      </c>
+      <c r="M551">
+        <v>1.25</v>
+      </c>
+      <c r="N551">
+        <v>5.25</v>
+      </c>
+      <c r="O551">
+        <v>7</v>
+      </c>
+      <c r="P551">
+        <v>-1.75</v>
+      </c>
+      <c r="Q551">
+        <v>1.75</v>
+      </c>
+      <c r="R551">
+        <v>2.05</v>
+      </c>
+      <c r="S551">
+        <v>4.5</v>
+      </c>
+      <c r="T551">
         <v>2</v>
       </c>
-      <c r="H551">
-        <v>6</v>
-      </c>
-      <c r="I551" t="s">
-        <v>151</v>
-      </c>
-      <c r="J551">
-        <v>4.75</v>
-      </c>
-      <c r="K551">
-        <v>4.75</v>
-      </c>
-      <c r="L551">
-        <v>1.45</v>
-      </c>
-      <c r="M551">
-        <v>3.75</v>
-      </c>
-      <c r="N551">
-        <v>5</v>
-      </c>
-      <c r="O551">
-        <v>1.615</v>
-      </c>
-      <c r="P551">
+      <c r="U551">
+        <v>1.8</v>
+      </c>
+      <c r="V551">
+        <v>0.25</v>
+      </c>
+      <c r="W551">
+        <v>-1</v>
+      </c>
+      <c r="X551">
+        <v>-1</v>
+      </c>
+      <c r="Y551">
         <v>0.75</v>
       </c>
-      <c r="Q551">
-        <v>1.875</v>
-      </c>
-      <c r="R551">
-        <v>1.925</v>
-      </c>
-      <c r="S551">
-        <v>4.25</v>
-      </c>
-      <c r="T551">
-        <v>1.9</v>
-      </c>
-      <c r="U551">
-        <v>1.9</v>
-      </c>
-      <c r="V551">
-        <v>-1</v>
-      </c>
-      <c r="W551">
-        <v>-1</v>
-      </c>
-      <c r="X551">
-        <v>0.615</v>
-      </c>
-      <c r="Y551">
-        <v>-1</v>
-      </c>
       <c r="Z551">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA551">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB551">
         <v>-1</v>
@@ -48228,7 +48228,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>7298752</v>
+        <v>7298751</v>
       </c>
       <c r="C552" t="s">
         <v>27</v>
@@ -48237,73 +48237,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="E552" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F552" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G552">
+        <v>2</v>
+      </c>
+      <c r="H552">
+        <v>6</v>
+      </c>
+      <c r="I552" t="s">
+        <v>151</v>
+      </c>
+      <c r="J552">
+        <v>4.75</v>
+      </c>
+      <c r="K552">
+        <v>4.75</v>
+      </c>
+      <c r="L552">
+        <v>1.45</v>
+      </c>
+      <c r="M552">
+        <v>3.75</v>
+      </c>
+      <c r="N552">
         <v>5</v>
       </c>
-      <c r="H552">
-        <v>1</v>
-      </c>
-      <c r="I552" t="s">
-        <v>150</v>
-      </c>
-      <c r="J552">
-        <v>1.533</v>
-      </c>
-      <c r="K552">
-        <v>4</v>
-      </c>
-      <c r="L552">
-        <v>4.75</v>
-      </c>
-      <c r="M552">
-        <v>1.25</v>
-      </c>
-      <c r="N552">
-        <v>5.25</v>
-      </c>
       <c r="O552">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="P552">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q552">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R552">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S552">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="T552">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U552">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V552">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W552">
         <v>-1</v>
       </c>
       <c r="X552">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y552">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z552">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA552">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB552">
         <v>-1</v>
@@ -48326,7 +48326,7 @@
         <v>116</v>
       </c>
       <c r="F553" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G553">
         <v>2</v>
@@ -48667,7 +48667,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E557" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F557" t="s">
         <v>101</v>
@@ -48925,7 +48925,7 @@
         <v>45399.52083333334</v>
       </c>
       <c r="E560" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F560" t="s">
         <v>142</v>
@@ -49346,7 +49346,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>8114271</v>
+        <v>8113841</v>
       </c>
       <c r="C565" t="s">
         <v>27</v>
@@ -49355,76 +49355,76 @@
         <v>45401.52083333334</v>
       </c>
       <c r="E565" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F565" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565">
+        <v>5</v>
+      </c>
+      <c r="I565" t="s">
+        <v>151</v>
+      </c>
+      <c r="J565">
+        <v>1.4</v>
+      </c>
+      <c r="K565">
+        <v>5.5</v>
+      </c>
+      <c r="L565">
+        <v>4.5</v>
+      </c>
+      <c r="M565">
+        <v>3.8</v>
+      </c>
+      <c r="N565">
+        <v>4.2</v>
+      </c>
+      <c r="O565">
+        <v>1.6</v>
+      </c>
+      <c r="P565">
         <v>1</v>
       </c>
-      <c r="H565">
-        <v>0</v>
-      </c>
-      <c r="I565" t="s">
-        <v>150</v>
-      </c>
-      <c r="J565">
-        <v>1.222</v>
-      </c>
-      <c r="K565">
-        <v>6</v>
-      </c>
-      <c r="L565">
-        <v>7.5</v>
-      </c>
-      <c r="M565">
-        <v>1.09</v>
-      </c>
-      <c r="N565">
-        <v>10</v>
-      </c>
-      <c r="O565">
-        <v>19</v>
-      </c>
-      <c r="P565">
-        <v>-3.25</v>
-      </c>
       <c r="Q565">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R565">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S565">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T565">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U565">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V565">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="W565">
         <v>-1</v>
       </c>
       <c r="X565">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y565">
         <v>-1</v>
       </c>
       <c r="Z565">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA565">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB565">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566" spans="1:28">
@@ -49432,7 +49432,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>8113841</v>
+        <v>8114271</v>
       </c>
       <c r="C566" t="s">
         <v>27</v>
@@ -49441,76 +49441,76 @@
         <v>45401.52083333334</v>
       </c>
       <c r="E566" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F566" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566">
         <v>0</v>
       </c>
-      <c r="H566">
+      <c r="I566" t="s">
+        <v>150</v>
+      </c>
+      <c r="J566">
+        <v>1.222</v>
+      </c>
+      <c r="K566">
+        <v>6</v>
+      </c>
+      <c r="L566">
+        <v>7.5</v>
+      </c>
+      <c r="M566">
+        <v>1.09</v>
+      </c>
+      <c r="N566">
+        <v>10</v>
+      </c>
+      <c r="O566">
+        <v>19</v>
+      </c>
+      <c r="P566">
+        <v>-3.25</v>
+      </c>
+      <c r="Q566">
+        <v>1.9</v>
+      </c>
+      <c r="R566">
+        <v>1.9</v>
+      </c>
+      <c r="S566">
         <v>5</v>
       </c>
-      <c r="I566" t="s">
-        <v>151</v>
-      </c>
-      <c r="J566">
-        <v>1.4</v>
-      </c>
-      <c r="K566">
-        <v>5.5</v>
-      </c>
-      <c r="L566">
-        <v>4.5</v>
-      </c>
-      <c r="M566">
-        <v>3.8</v>
-      </c>
-      <c r="N566">
-        <v>4.2</v>
-      </c>
-      <c r="O566">
-        <v>1.6</v>
-      </c>
-      <c r="P566">
-        <v>1</v>
-      </c>
-      <c r="Q566">
-        <v>1.8</v>
-      </c>
-      <c r="R566">
-        <v>2</v>
-      </c>
-      <c r="S566">
-        <v>3.75</v>
-      </c>
       <c r="T566">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U566">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V566">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W566">
         <v>-1</v>
       </c>
       <c r="X566">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y566">
         <v>-1</v>
       </c>
       <c r="Z566">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA566">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB566">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="567" spans="1:28">
@@ -50292,7 +50292,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>8138427</v>
+        <v>8138428</v>
       </c>
       <c r="C576" t="s">
         <v>27</v>
@@ -50301,76 +50301,76 @@
         <v>45407.52083333334</v>
       </c>
       <c r="E576" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F576" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G576">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H576">
         <v>1</v>
       </c>
       <c r="I576" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J576">
+        <v>1.533</v>
+      </c>
+      <c r="K576">
+        <v>4.333</v>
+      </c>
+      <c r="L576">
+        <v>4.333</v>
+      </c>
+      <c r="M576">
+        <v>1.6</v>
+      </c>
+      <c r="N576">
         <v>4.5</v>
       </c>
-      <c r="K576">
+      <c r="O576">
+        <v>3.8</v>
+      </c>
+      <c r="P576">
+        <v>-1</v>
+      </c>
+      <c r="Q576">
+        <v>1.875</v>
+      </c>
+      <c r="R576">
+        <v>1.925</v>
+      </c>
+      <c r="S576">
         <v>4.5</v>
       </c>
-      <c r="L576">
-        <v>1.5</v>
-      </c>
-      <c r="M576">
-        <v>2.1</v>
-      </c>
-      <c r="N576">
-        <v>4.2</v>
-      </c>
-      <c r="O576">
-        <v>2.5</v>
-      </c>
-      <c r="P576">
-        <v>-0.25</v>
-      </c>
-      <c r="Q576">
-        <v>1.95</v>
-      </c>
-      <c r="R576">
-        <v>1.85</v>
-      </c>
-      <c r="S576">
-        <v>3.75</v>
-      </c>
       <c r="T576">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U576">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V576">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W576">
         <v>-1</v>
       </c>
       <c r="X576">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y576">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z576">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA576">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB576">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="577" spans="1:28">
@@ -50378,7 +50378,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>8138428</v>
+        <v>8138427</v>
       </c>
       <c r="C577" t="s">
         <v>27</v>
@@ -50387,76 +50387,76 @@
         <v>45407.52083333334</v>
       </c>
       <c r="E577" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F577" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G577">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H577">
         <v>1</v>
       </c>
       <c r="I577" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J577">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="K577">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L577">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="M577">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N577">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O577">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="P577">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q577">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R577">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S577">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T577">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U577">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V577">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W577">
         <v>-1</v>
       </c>
       <c r="X577">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y577">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z577">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA577">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB577">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="578" spans="1:28">
@@ -51496,7 +51496,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>8146769</v>
+        <v>8146655</v>
       </c>
       <c r="C590" t="s">
         <v>27</v>
@@ -51505,55 +51505,55 @@
         <v>45409.375</v>
       </c>
       <c r="E590" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F590" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="G590">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H590">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="s">
         <v>151</v>
       </c>
       <c r="J590">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K590">
         <v>4</v>
       </c>
       <c r="L590">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M590">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N590">
         <v>4.5</v>
       </c>
       <c r="O590">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="P590">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q590">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R590">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S590">
         <v>4</v>
       </c>
       <c r="T590">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U590">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V590">
         <v>-1</v>
@@ -51562,19 +51562,19 @@
         <v>-1</v>
       </c>
       <c r="X590">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y590">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z590">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA590">
         <v>-1</v>
       </c>
       <c r="AB590">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="591" spans="1:28">
@@ -51582,7 +51582,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>8146655</v>
+        <v>8146769</v>
       </c>
       <c r="C591" t="s">
         <v>27</v>
@@ -51591,55 +51591,55 @@
         <v>45409.375</v>
       </c>
       <c r="E591" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F591" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I591" t="s">
         <v>151</v>
       </c>
       <c r="J591">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K591">
         <v>4</v>
       </c>
       <c r="L591">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M591">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N591">
         <v>4.5</v>
       </c>
       <c r="O591">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="P591">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q591">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R591">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S591">
         <v>4</v>
       </c>
       <c r="T591">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U591">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V591">
         <v>-1</v>
@@ -51648,19 +51648,19 @@
         <v>-1</v>
       </c>
       <c r="X591">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y591">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA591">
         <v>-1</v>
       </c>
       <c r="AB591">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="592" spans="1:28">
@@ -51849,10 +51849,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E594" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F594" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G594">
         <v>0</v>
